--- a/server/resource/excel/template_product.xlsx
+++ b/server/resource/excel/template_product.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xujun/gva/gin-vue-admin/server/resource/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0174435A-F0DF-1C4A-AFBA-C3F72BAA5808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2F74B1-13A7-EC49-97F3-4520DEA25804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20660" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20660" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="order" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <r>
       <t xml:space="preserve">        S&amp;L FOOD TRADING LTD
@@ -74,6 +74,10 @@
     <t>PRICE</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
+  <si>
+    <t>BARCODE</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -239,7 +243,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -297,6 +301,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -348,7 +358,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>362117</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>723900</xdr:rowOff>
     </xdr:to>
@@ -422,7 +432,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>362117</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>723900</xdr:rowOff>
     </xdr:to>
@@ -496,7 +506,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>362117</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>723900</xdr:rowOff>
     </xdr:to>
@@ -570,7 +580,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>242888</xdr:colOff>
+      <xdr:colOff>347830</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>728663</xdr:rowOff>
     </xdr:to>
@@ -639,7 +649,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -927,7 +937,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -935,31 +945,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="52.33203125" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="40.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="52.33203125" style="1"/>
+    <col min="1" max="1" width="7.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="52.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="62.25" customHeight="1">
+    <row r="1" spans="1:7" ht="62.25" customHeight="1">
       <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="19"/>
     </row>
-    <row r="2" spans="1:6" ht="16" customHeight="1"/>
-    <row r="3" spans="1:6" ht="30" customHeight="1">
+    <row r="2" spans="1:7" ht="16" customHeight="1"/>
+    <row r="3" spans="1:7" ht="30" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -978,22 +989,27 @@
       <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="G3" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1">
+    <row r="4" spans="1:7" ht="30" customHeight="1">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
       <c r="E4" s="12"/>
       <c r="F4" s="13"/>
+      <c r="G4" s="20"/>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1">
+    <row r="5" spans="1:7" ht="30" customHeight="1">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="15"/>
       <c r="D5" s="16"/>
       <c r="E5" s="17"/>
       <c r="F5" s="18"/>
+      <c r="G5" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1005,7 +1021,7 @@
       <formula>AND(COUNTIF($A$1:$A$1, A1)+COUNTIF($A$2:$A$65534, A1)&gt;1,NOT(ISBLANK(A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.45" right="0.45" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/server/resource/excel/template_product.xlsx
+++ b/server/resource/excel/template_product.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xujun/gva/gin-vue-admin/server/resource/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2F74B1-13A7-EC49-97F3-4520DEA25804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DBEA30-DE9E-264C-8ABF-7A8C91AC0A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20660" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -204,7 +204,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,6 +284,12 @@
     <xf numFmtId="181" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -298,12 +304,6 @@
     </xf>
     <xf numFmtId="181" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -948,7 +948,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="52.33203125" defaultRowHeight="30" customHeight="1"/>
@@ -964,10 +964,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="62.25" customHeight="1">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="16" customHeight="1"/>
     <row r="3" spans="1:7" ht="30" customHeight="1">
@@ -1000,15 +1000,15 @@
       <c r="D4" s="11"/>
       <c r="E4" s="12"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="20"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
       <c r="G5" s="21"/>
     </row>
   </sheetData>

--- a/server/resource/excel/template_product.xlsx
+++ b/server/resource/excel/template_product.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xujun/gva/gin-vue-admin/server/resource/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\gin-vue-admin\server\resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DBEA30-DE9E-264C-8ABF-7A8C91AC0A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A8129C-A62E-4DB8-A24D-721E078292E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20660" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="order" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <r>
       <t xml:space="preserve">        S&amp;L FOOD TRADING LTD
@@ -78,20 +78,24 @@
     <t>BARCODE</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
+  <si>
+    <t>VAT</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ [$€-2]* #,##0.00_ ;_ [$€-2]* \-#,##0.00_ ;_ [$€-2]* &quot;-&quot;??_ "/>
-    <numFmt numFmtId="178" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="180" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="181" formatCode="[$£-809]#,##0.00"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ [$€-2]* #,##0.00_ ;_ [$€-2]* \-#,##0.00_ ;_ [$€-2]* &quot;-&quot;??_ "/>
+    <numFmt numFmtId="177" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="180" formatCode="[$£-809]#,##0.00"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,14 +226,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -238,7 +242,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -254,7 +258,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -266,7 +270,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -275,38 +279,38 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="179" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -649,9 +653,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -689,7 +693,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -795,7 +799,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -937,7 +941,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -945,32 +949,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="52.33203125" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="52.375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="52.33203125" style="1"/>
+    <col min="5" max="5" width="5.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="52.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="62.25" customHeight="1">
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15"/>
+      <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:7" ht="16" customHeight="1"/>
-    <row r="3" spans="1:7" ht="30" customHeight="1">
+    <row r="2" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -992,8 +997,11 @@
       <c r="G3" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="H3" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1">
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
@@ -1001,15 +1009,27 @@
       <c r="E4" s="12"/>
       <c r="F4" s="13"/>
       <c r="G4" s="14"/>
+      <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/server/resource/excel/template_product.xlsx
+++ b/server/resource/excel/template_product.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\gin-vue-admin\server\resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ted/Projects/gin-vue-admin/server/resource/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A8129C-A62E-4DB8-A24D-721E078292E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1236F37C-450B-1C4A-9EF5-6D47E27110A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11820" yWindow="500" windowWidth="24960" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="order" sheetId="1" r:id="rId1"/>
+    <sheet name="Product" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <r>
       <t xml:space="preserve">        S&amp;L FOOD TRADING LTD
@@ -48,39 +48,43 @@
       </rPr>
       <t xml:space="preserve">            10 Merbury Road  London  SE28 0HR</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CODE</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>PRODUCT NAME</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>PACKING</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>EXP</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>QTY</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>PRICE</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>BARCODE</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>VAT</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHOTO</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -88,14 +92,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ [$€-2]* #,##0.00_ ;_ [$€-2]* \-#,##0.00_ ;_ [$€-2]* &quot;-&quot;??_ "/>
-    <numFmt numFmtId="177" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="179" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="180" formatCode="[$£-809]#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ [$€-2]* #,##0.00_ ;_ [$€-2]* \-#,##0.00_ ;_ [$€-2]* &quot;-&quot;??_ "/>
+    <numFmt numFmtId="178" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="181" formatCode="[$£-809]#,##0.00"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,12 +124,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -149,18 +147,6 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -225,91 +211,91 @@
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -327,7 +313,37 @@
     <cellStyle name="千位分隔 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="样式 1" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color indexed="20"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="20"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="20"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color indexed="20"/>
@@ -361,8 +377,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>362117</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>923591</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>723900</xdr:rowOff>
     </xdr:to>
@@ -435,8 +451,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>362117</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>923591</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>723900</xdr:rowOff>
     </xdr:to>
@@ -509,8 +525,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>362117</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>923591</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>723900</xdr:rowOff>
     </xdr:to>
@@ -583,8 +599,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>347830</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>909304</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>728663</xdr:rowOff>
     </xdr:to>
@@ -949,99 +965,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="52.375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="52.33203125" defaultRowHeight="75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="52.375" style="1"/>
+    <col min="1" max="1" width="13.6640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="7" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="16" customWidth="1"/>
+    <col min="9" max="9" width="7.5" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="52.33203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="60" customHeight="1">
+      <c r="A1" s="15"/>
       <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
-    <row r="2" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+    <row r="2" spans="1:9" ht="9" customHeight="1"/>
+    <row r="3" spans="1:9" ht="37" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="13"/>
+    <row r="4" spans="1:9" ht="75" customHeight="1">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
+    <row r="5" spans="1:9" ht="75" customHeight="1">
+      <c r="A5" s="20"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="13"/>
+    <row r="6" spans="1:9" ht="75" customHeight="1">
+      <c r="B6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="expression" dxfId="0" priority="28" stopIfTrue="1">
-      <formula>AND(COUNTIF($A$1:$A$1, A1)+COUNTIF($A$2:$A$65534, A1)&gt;1,NOT(ISBLANK(A1)))</formula>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <conditionalFormatting sqref="A1 B2:B3 B6:B1048576">
+    <cfRule type="expression" dxfId="3" priority="33" stopIfTrue="1">
+      <formula>AND(COUNTIF($A$1:$A$1, A1)+COUNTIF($B$2:$B$65534, A1)&gt;1,NOT(ISBLANK(A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.45" right="0.45" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+      <formula>AND(COUNTIF($A$1:$A$1, A3)+COUNTIF($B$2:$B$65534, A3)&gt;1,NOT(ISBLANK(A3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B5">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>AND(COUNTIF($A$1:$A$1, B4)+COUNTIF($A$2:$A$65534, B4)&gt;1,NOT(ISBLANK(B4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>AND(COUNTIF($A$1:$A$1, C3)+COUNTIF($B$2:$B$65534, C3)&gt;1,NOT(ISBLANK(C3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
